--- a/Resultados/IFRS 17/tri_ifrs17_RC daños a cosas.xlsx
+++ b/Resultados/IFRS 17/tri_ifrs17_RC daños a cosas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\Resultados\IFRS 17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\Resultados\IFRS 17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F1C922-AF64-420C-8702-A17F2CB9FAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6126EC-32F1-4771-9FF1-13337594F921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>AO \ Periodo</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -30,8 +33,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="yyyy"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -171,24 +174,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,19 +506,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F13:AA19"/>
+  <dimension ref="F4:W19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="N4" s="1">
+        <v>8</v>
+      </c>
+      <c r="O4" s="1">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>11</v>
+      </c>
+      <c r="R4" s="1">
+        <v>12</v>
+      </c>
+      <c r="S4" s="1">
+        <v>13</v>
+      </c>
+      <c r="T4" s="1">
+        <v>14</v>
+      </c>
+      <c r="U4" s="1">
+        <v>15</v>
+      </c>
+      <c r="V4" s="1">
+        <v>16</v>
+      </c>
+      <c r="W4" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="N5" s="5">
+        <v>1061.683372545441</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1065.2925991104939</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1068.1967532394419</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1070.587011451345</v>
+      </c>
+      <c r="R5" s="5">
+        <v>1072.590739253342</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1074.2961489067</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1075.7663227605301</v>
+      </c>
+      <c r="U5" s="5">
+        <v>1077.047600094882</v>
+      </c>
+      <c r="V5" s="5">
+        <v>1078.174807951581</v>
+      </c>
+      <c r="W5" s="5">
+        <v>1079.174641664714</v>
+      </c>
+    </row>
+    <row r="6" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="N6" s="8">
+        <v>829.24770706823529</v>
+      </c>
+      <c r="O6" s="8">
+        <v>832.06676115795358</v>
+      </c>
+      <c r="P6" s="8">
+        <v>834.3351051997646</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>836.20206119886723</v>
+      </c>
+      <c r="R6" s="8">
+        <v>837.76711037300197</v>
+      </c>
+      <c r="S6" s="8">
+        <v>839.09915256300906</v>
+      </c>
+      <c r="T6" s="8">
+        <v>840.24745942059553</v>
+      </c>
+      <c r="U6" s="8">
+        <v>841.24822510941237</v>
+      </c>
+      <c r="V6" s="8">
+        <v>842.1286519435597</v>
+      </c>
+      <c r="W6" s="8">
+        <v>842.90959081432368</v>
+      </c>
+    </row>
+    <row r="7" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="N7" s="8">
+        <v>862.4916999548476</v>
+      </c>
+      <c r="O7" s="8">
+        <v>865.42376806113396</v>
+      </c>
+      <c r="P7" s="8">
+        <v>867.78304851741757</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>869.72484954946356</v>
+      </c>
+      <c r="R7" s="8">
+        <v>871.35264051132799</v>
+      </c>
+      <c r="S7" s="8">
+        <v>872.7380833929642</v>
+      </c>
+      <c r="T7" s="8">
+        <v>873.9324251140539</v>
+      </c>
+      <c r="U7" s="8">
+        <v>874.97331083836389</v>
+      </c>
+      <c r="V7" s="8">
+        <v>875.88903340280058</v>
+      </c>
+      <c r="W7" s="8">
+        <v>876.7012795971101</v>
+      </c>
+    </row>
+    <row r="8" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="N8" s="8">
+        <v>992.41844284130354</v>
+      </c>
+      <c r="O8" s="8">
+        <v>995.79220106355388</v>
+      </c>
+      <c r="P8" s="8">
+        <v>998.50688624460952</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>1000.74120242021</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1002.614205687059</v>
+      </c>
+      <c r="S8" s="8">
+        <v>1004.208353279796</v>
+      </c>
+      <c r="T8" s="8">
+        <v>1005.582612013099</v>
+      </c>
+      <c r="U8" s="8">
+        <v>1006.780297961554</v>
+      </c>
+      <c r="V8" s="8">
+        <v>1007.833966027601</v>
+      </c>
+      <c r="W8" s="8">
+        <v>1008.768569923966</v>
+      </c>
+    </row>
+    <row r="9" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="N9" s="8">
+        <v>773.0162552370748</v>
+      </c>
+      <c r="O9" s="8">
+        <v>775.64414870867586</v>
+      </c>
+      <c r="P9" s="8">
+        <v>777.75867589017332</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>779.49903323191495</v>
+      </c>
+      <c r="R9" s="8">
+        <v>780.95795611049459</v>
+      </c>
+      <c r="S9" s="8">
+        <v>782.19967225485084</v>
+      </c>
+      <c r="T9" s="8">
+        <v>783.2701121961959</v>
+      </c>
+      <c r="U9" s="8">
+        <v>784.20301576474947</v>
+      </c>
+      <c r="V9" s="8">
+        <v>785.02374068028655</v>
+      </c>
+      <c r="W9" s="8">
+        <v>785.75172393101059</v>
+      </c>
+    </row>
+    <row r="10" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="N10" s="11">
+        <v>698.86203128141381</v>
+      </c>
+      <c r="O10" s="11">
+        <v>701.2378350981021</v>
+      </c>
+      <c r="P10" s="11">
+        <v>703.14951903909218</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>704.72292665990858</v>
+      </c>
+      <c r="R10" s="11">
+        <v>706.04189737947581</v>
+      </c>
+      <c r="S10" s="11">
+        <v>707.16449766251071</v>
+      </c>
+      <c r="T10" s="11">
+        <v>708.13225199717704</v>
+      </c>
+      <c r="U10" s="11">
+        <v>708.97566360526685</v>
+      </c>
+      <c r="V10" s="11">
+        <v>709.71765768069486</v>
+      </c>
+      <c r="W10" s="11">
+        <v>710.37580665219843</v>
+      </c>
+    </row>
+    <row r="13" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F13" s="3" t="s">
         <v>0</v>
       </c>
@@ -528,50 +767,23 @@
       <c r="M13" s="1">
         <v>7</v>
       </c>
-      <c r="N13" s="1">
-        <v>8</v>
+      <c r="N13" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="O13" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="P13" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="R13" s="1">
-        <v>12</v>
-      </c>
-      <c r="S13" s="1">
-        <v>13</v>
-      </c>
-      <c r="T13" s="1">
-        <v>14</v>
-      </c>
-      <c r="U13" s="1">
-        <v>15</v>
-      </c>
-      <c r="V13" s="1">
-        <v>16</v>
-      </c>
-      <c r="W13" s="1">
-        <v>17</v>
-      </c>
-      <c r="X13" s="1">
-        <v>18</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>19</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA13" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F14" s="2">
         <v>43101</v>
       </c>
@@ -596,50 +808,23 @@
       <c r="M14" s="5">
         <v>1057.067979939985</v>
       </c>
-      <c r="N14" s="5">
-        <v>1061.683372545441</v>
+      <c r="N14" s="14" t="s">
+        <v>1</v>
       </c>
       <c r="O14" s="5">
-        <v>1065.2925991104939</v>
+        <v>1080.0679173150379</v>
       </c>
       <c r="P14" s="5">
-        <v>1068.1967532394419</v>
+        <v>1080.8711128478269</v>
       </c>
       <c r="Q14" s="5">
-        <v>1070.587011451345</v>
-      </c>
-      <c r="R14" s="5">
-        <v>1072.590739253342</v>
-      </c>
-      <c r="S14" s="5">
-        <v>1074.2961489067</v>
-      </c>
-      <c r="T14" s="5">
-        <v>1075.7663227605301</v>
-      </c>
-      <c r="U14" s="5">
-        <v>1077.047600094882</v>
-      </c>
-      <c r="V14" s="5">
-        <v>1078.174807951581</v>
-      </c>
-      <c r="W14" s="5">
-        <v>1079.174641664714</v>
-      </c>
-      <c r="X14" s="5">
-        <v>1080.0679173150379</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>1080.8711128478269</v>
-      </c>
-      <c r="Z14" s="5">
         <v>1081.597447275441</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="R14" s="6">
         <v>1082.25765208803</v>
       </c>
     </row>
-    <row r="15" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F15" s="2">
         <v>43466</v>
       </c>
@@ -664,50 +849,23 @@
       <c r="M15" s="8">
         <v>825.64276812479306</v>
       </c>
-      <c r="N15" s="8">
-        <v>829.24770706823529</v>
+      <c r="N15" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="O15" s="8">
-        <v>832.06676115795358</v>
+        <v>843.60730051192911</v>
       </c>
       <c r="P15" s="8">
-        <v>834.3351051997646</v>
+        <v>844.23465144452916</v>
       </c>
       <c r="Q15" s="8">
-        <v>836.20206119886723</v>
-      </c>
-      <c r="R15" s="8">
-        <v>837.76711037300197</v>
-      </c>
-      <c r="S15" s="8">
-        <v>839.09915256300906</v>
-      </c>
-      <c r="T15" s="8">
-        <v>840.24745942059553</v>
-      </c>
-      <c r="U15" s="8">
-        <v>841.24822510941237</v>
-      </c>
-      <c r="V15" s="8">
-        <v>842.1286519435597</v>
-      </c>
-      <c r="W15" s="8">
-        <v>842.90959081432368</v>
-      </c>
-      <c r="X15" s="8">
-        <v>843.60730051192911</v>
-      </c>
-      <c r="Y15" s="8">
-        <v>844.23465144452916</v>
-      </c>
-      <c r="Z15" s="8">
         <v>844.80196856961527</v>
       </c>
-      <c r="AA15" s="9">
+      <c r="R15" s="9">
         <v>845.31763391880713</v>
       </c>
     </row>
-    <row r="16" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F16" s="2">
         <v>43831</v>
       </c>
@@ -732,50 +890,23 @@
       <c r="M16" s="8">
         <v>858.74224139010198</v>
       </c>
-      <c r="N16" s="8">
-        <v>862.4916999548476</v>
+      <c r="N16" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="O16" s="8">
-        <v>865.42376806113396</v>
+        <v>877.4269600156789</v>
       </c>
       <c r="P16" s="8">
-        <v>867.78304851741757</v>
+        <v>878.07946103282325</v>
       </c>
       <c r="Q16" s="8">
-        <v>869.72484954946356</v>
-      </c>
-      <c r="R16" s="8">
-        <v>871.35264051132799</v>
-      </c>
-      <c r="S16" s="8">
-        <v>872.7380833929642</v>
-      </c>
-      <c r="T16" s="8">
-        <v>873.9324251140539</v>
-      </c>
-      <c r="U16" s="8">
-        <v>874.97331083836389</v>
-      </c>
-      <c r="V16" s="8">
-        <v>875.88903340280058</v>
-      </c>
-      <c r="W16" s="8">
-        <v>876.7012795971101</v>
-      </c>
-      <c r="X16" s="8">
-        <v>877.4269600156789</v>
-      </c>
-      <c r="Y16" s="8">
-        <v>878.07946103282325</v>
-      </c>
-      <c r="Z16" s="8">
         <v>878.66952152676026</v>
       </c>
-      <c r="AA16" s="9">
+      <c r="R16" s="9">
         <v>879.20585955922195</v>
       </c>
     </row>
-    <row r="17" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F17" s="2">
         <v>44197</v>
       </c>
@@ -800,50 +931,23 @@
       <c r="M17" s="8">
         <v>988.10416152066261</v>
       </c>
-      <c r="N17" s="8">
-        <v>992.41844284130354</v>
+      <c r="N17" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="O17" s="8">
-        <v>995.79220106355388</v>
+        <v>1009.6035676764481</v>
       </c>
       <c r="P17" s="8">
-        <v>998.50688624460952</v>
+        <v>1010.354362198205</v>
       </c>
       <c r="Q17" s="8">
-        <v>1000.74120242021</v>
-      </c>
-      <c r="R17" s="8">
-        <v>1002.614205687059</v>
-      </c>
-      <c r="S17" s="8">
-        <v>1004.208353279796</v>
-      </c>
-      <c r="T17" s="8">
-        <v>1005.582612013099</v>
-      </c>
-      <c r="U17" s="8">
-        <v>1006.780297961554</v>
-      </c>
-      <c r="V17" s="8">
-        <v>1007.833966027601</v>
-      </c>
-      <c r="W17" s="8">
-        <v>1008.768569923966</v>
-      </c>
-      <c r="X17" s="8">
-        <v>1009.6035676764481</v>
-      </c>
-      <c r="Y17" s="8">
-        <v>1010.354362198205</v>
-      </c>
-      <c r="Z17" s="8">
         <v>1011.033310084435</v>
       </c>
-      <c r="AA17" s="9">
+      <c r="R17" s="9">
         <v>1011.650442695728</v>
       </c>
     </row>
-    <row r="18" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F18" s="2">
         <v>44562</v>
       </c>
@@ -868,50 +972,23 @@
       <c r="M18" s="8">
         <v>769.65576791987723</v>
       </c>
-      <c r="N18" s="8">
-        <v>773.0162552370748</v>
+      <c r="N18" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="O18" s="8">
-        <v>775.64414870867586</v>
+        <v>786.40212179535013</v>
       </c>
       <c r="P18" s="8">
-        <v>777.75867589017332</v>
+        <v>786.98693193652309</v>
       </c>
       <c r="Q18" s="8">
-        <v>779.49903323191495</v>
-      </c>
-      <c r="R18" s="8">
-        <v>780.95795611049459</v>
-      </c>
-      <c r="S18" s="8">
-        <v>782.19967225485084</v>
-      </c>
-      <c r="T18" s="8">
-        <v>783.2701121961959</v>
-      </c>
-      <c r="U18" s="8">
-        <v>784.20301576474947</v>
-      </c>
-      <c r="V18" s="8">
-        <v>785.02374068028655</v>
-      </c>
-      <c r="W18" s="8">
-        <v>785.75172393101059</v>
-      </c>
-      <c r="X18" s="8">
-        <v>786.40212179535013</v>
-      </c>
-      <c r="Y18" s="8">
-        <v>786.98693193652309</v>
-      </c>
-      <c r="Z18" s="8">
         <v>787.51577917460145</v>
       </c>
-      <c r="AA18" s="9">
+      <c r="R18" s="9">
         <v>787.99647715397498</v>
       </c>
     </row>
-    <row r="19" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F19" s="2">
         <v>44927</v>
       </c>
@@ -936,46 +1013,19 @@
       <c r="M19" s="11">
         <v>695.8239101854067</v>
       </c>
-      <c r="N19" s="11">
-        <v>698.86203128141381</v>
+      <c r="N19" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="O19" s="11">
-        <v>701.2378350981021</v>
+        <v>710.96381288044267</v>
       </c>
       <c r="P19" s="11">
-        <v>703.14951903909218</v>
+        <v>711.49252311183204</v>
       </c>
       <c r="Q19" s="11">
-        <v>704.72292665990858</v>
-      </c>
-      <c r="R19" s="11">
-        <v>706.04189737947581</v>
-      </c>
-      <c r="S19" s="11">
-        <v>707.16449766251071</v>
-      </c>
-      <c r="T19" s="11">
-        <v>708.13225199717704</v>
-      </c>
-      <c r="U19" s="11">
-        <v>708.97566360526685</v>
-      </c>
-      <c r="V19" s="11">
-        <v>709.71765768069486</v>
-      </c>
-      <c r="W19" s="11">
-        <v>710.37580665219843</v>
-      </c>
-      <c r="X19" s="11">
-        <v>710.96381288044267</v>
-      </c>
-      <c r="Y19" s="11">
-        <v>711.49252311183204</v>
-      </c>
-      <c r="Z19" s="11">
         <v>711.97063887270644</v>
       </c>
-      <c r="AA19" s="12">
+      <c r="R19" s="12">
         <v>712.40522425693587</v>
       </c>
     </row>
